--- a/docs/example_ph/data/Electricity_i_Education_2030.xlsx
+++ b/docs/example_ph/data/Electricity_i_Education_2030.xlsx
@@ -434,20 +434,14 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>821</v>
-      </c>
       <c r="C2">
-        <v>6300</v>
+        <v>2033</v>
       </c>
       <c r="D2">
-        <v>2445</v>
-      </c>
-      <c r="E2">
-        <v>459</v>
+        <v>1886</v>
       </c>
       <c r="F2">
-        <v>2591</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,19 +449,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3403</v>
+        <v>5259</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>1009.25</v>
       </c>
       <c r="D3">
-        <v>550</v>
+        <v>96.89</v>
       </c>
       <c r="E3">
-        <v>723</v>
+        <v>283</v>
       </c>
       <c r="F3">
-        <v>4908</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -475,39 +469,33 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3949.5</v>
+        <v>5559</v>
       </c>
       <c r="C4">
-        <v>7.17</v>
+        <v>2934.69</v>
       </c>
       <c r="D4">
-        <v>1140.57</v>
+        <v>2283.14</v>
       </c>
       <c r="E4">
-        <v>501.37</v>
+        <v>1797</v>
       </c>
       <c r="F4">
-        <v>1268.58</v>
+        <v>56.18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1551.92</v>
-      </c>
       <c r="C5">
-        <v>2.37</v>
+        <v>348.06</v>
       </c>
       <c r="D5">
-        <v>1477.74</v>
-      </c>
-      <c r="E5">
-        <v>488.25</v>
+        <v>1346.96</v>
       </c>
       <c r="F5">
-        <v>4773.81</v>
+        <v>4509.38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,13 +503,13 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>5568.97</v>
+        <v>4476</v>
       </c>
       <c r="E6">
-        <v>777.38</v>
+        <v>869</v>
       </c>
       <c r="F6">
-        <v>1183.79</v>
+        <v>18.77</v>
       </c>
     </row>
   </sheetData>
